--- a/UnitStatus.xlsx
+++ b/UnitStatus.xlsx
@@ -158,7 +158,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>125+25+25</t>
+    <t>125+25+15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +524,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>

--- a/UnitStatus.xlsx
+++ b/UnitStatus.xlsx
@@ -524,7 +524,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -818,13 +818,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="1">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="D21" s="1">
         <v>0.1</v>
       </c>
       <c r="E21" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F21" s="1">
         <v>100</v>
@@ -835,13 +835,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="D22" s="1">
         <v>0.1</v>
       </c>
       <c r="E22" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F22" s="1">
         <v>150</v>
@@ -852,13 +852,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="1">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="D23" s="1">
         <v>0.1</v>
       </c>
       <c r="E23" s="1">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="F23" s="1">
         <v>200</v>

--- a/UnitStatus.xlsx
+++ b/UnitStatus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,67 +46,160 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Bolt Lv5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sphere Lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sphere Lv3 (+area)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Razer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RazerBlood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asteroid_small</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asteroid_medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asteroid_big</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TridentDark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cruiser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CruiserElite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Droid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shuttle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battleship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mothership</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flagship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sphere Lv4 (ATK, +area)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sphere Lv5 (ATK, +area, remains)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Galaxy 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Galaxy 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Galaxy 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Front) DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Bolt Lv2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bolt Lv4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bolt Lv5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sphere Lv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sphere Lv3 (+area)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Razer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RazerBlood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trident</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asteroid_small</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asteroid_medium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asteroid_big</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TridentDark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cruiser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CruiserElite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Droid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shuttle</t>
+    <t>Sphere Lv2 (CDR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laser Lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laser Lv2</t>
+  </si>
+  <si>
+    <t>Laser Lv4</t>
+  </si>
+  <si>
+    <t>Laser Lv5</t>
+  </si>
+  <si>
+    <t>Spread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High instant damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laser Lv3 (Piercing)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolt Lv3 (+spread)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolt Lv4 (+spread)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125+25+15(*5) = 225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50+25 = 75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125+25 = 150</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -114,51 +207,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Battleship</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mothership</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flagship</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sphere Lv4 (ATK, +area)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sphere Lv5 (ATK, +area, remains)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50+25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Galaxy 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Galaxy 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Galaxy 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>125+25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>125+25+15</t>
+    <t>Lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv2</t>
+  </si>
+  <si>
+    <t>Lv3</t>
+  </si>
+  <si>
+    <t>Lv4</t>
+  </si>
+  <si>
+    <t>Lv5</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +247,14 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -202,9 +279,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -521,19 +602,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="2" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="7" width="11.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,323 +628,457 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:D4" si="0">C2*4</f>
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <f>C5*4</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1">
+        <f>C6*4</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C7" s="1">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1">
+        <f>C8/0.75</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1">
+        <f>75/0.75</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1">
+        <f>150/0.75</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
+        <v>80</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <v>150</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <v>200</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="C19" s="1">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>20</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1">
+        <v>180</v>
+      </c>
+      <c r="C20" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1">
-        <v>50</v>
-      </c>
-      <c r="C11" s="1">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1">
-        <v>150</v>
-      </c>
-      <c r="C12" s="1">
-        <v>50</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="E20" s="1">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>50</v>
-      </c>
-      <c r="F12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>50</v>
-      </c>
-      <c r="D13" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>50</v>
-      </c>
-      <c r="F13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>100</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>100</v>
-      </c>
-      <c r="F14" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>50</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>50</v>
-      </c>
-      <c r="F15" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1">
-        <v>100</v>
-      </c>
-      <c r="D16" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>100</v>
-      </c>
-      <c r="F16" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1">
-        <v>400</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E17" s="1">
-        <v>200</v>
-      </c>
-      <c r="F17" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1">
-        <v>800</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E18" s="1">
-        <v>500</v>
-      </c>
-      <c r="F18" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1">
-        <v>75</v>
-      </c>
-      <c r="D19" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>100</v>
-      </c>
-      <c r="F19" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1">
-        <v>150</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>500</v>
       </c>
       <c r="F20" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1">
+        <v>60</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>50</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>120</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>100</v>
+      </c>
+      <c r="G22" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1">
+        <v>60</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>50</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1">
+        <v>120</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>100</v>
+      </c>
+      <c r="G24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1">
+        <v>480</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F25" s="1">
+        <v>200</v>
+      </c>
+      <c r="G25" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1">
+        <v>960</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F26" s="1">
+        <v>500</v>
+      </c>
+      <c r="G26" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1">
+        <v>120</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>100</v>
+      </c>
+      <c r="G27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="1">
+        <v>150</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>500</v>
+      </c>
+      <c r="G28" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G29" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>25000</v>
+      </c>
+      <c r="G30" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="B31" s="1">
+        <v>12000</v>
+      </c>
+      <c r="E31" s="1">
         <v>0.1</v>
       </c>
-      <c r="E21" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F21" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>20000</v>
-      </c>
-      <c r="F22" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1">
-        <v>7500</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>30000</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="F31" s="1">
+        <v>50000</v>
+      </c>
+      <c r="G31" s="1">
         <v>200</v>
       </c>
     </row>
@@ -873,108 +1091,256 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <f>5*Status!G21</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <f>50*(Status!G19/3 +Status!G20/3) *0.2</f>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <f>2*Status!G25 + 5*Status!G21</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <f>8*Status!G21 + 8*Status!G23</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="C6">
+        <f>Status!G29</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <f>SUM(C2:C6)</f>
+        <v>296.66666666666669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
+      <c r="C8">
+        <f>2*Status!G25 + 8*Status!G22</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
+      <c r="C9">
+        <f>12*Status!G23 + 6*Status!G22</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
+      <c r="C10">
+        <f>80*(Status!G19/3 +Status!G20/3) *0.4</f>
+        <v>53.333333333333343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
+      <c r="C11">
+        <f>4*Status!G25 + 12*Status!G23</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="C12">
+        <f>Status!G30</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <f t="shared" ref="C13:C19" si="0">SUM(C8:C12)</f>
+        <v>613.33333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
+      <c r="C14">
+        <f>12*Status!G24 + 9*Status!G22 + 4*Status!G27</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
+      <c r="C15">
+        <f>120*(Status!G19/3 +Status!G20/3) *0.6</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
+      <c r="C16">
+        <f>3*Status!G26 + 12*Status!G24</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
+      <c r="C17">
+        <f>12*Status!G22 + 12*Status!G24</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <f>Status!G31</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <f>SUM(C7,C13,C19)</f>
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <f>C23</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <v>300</v>
+      </c>
+      <c r="D24">
+        <f>C24+C23</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>500</v>
+      </c>
+      <c r="D25">
+        <f>C25+C24+C23</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26">
+        <v>1000</v>
+      </c>
+      <c r="D26">
+        <f>SUM(C23:C26)</f>
+        <v>1900</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UnitStatus.xlsx
+++ b/UnitStatus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
@@ -195,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50+25 = 75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>125+25 = 150</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,6 +224,10 @@
   </si>
   <si>
     <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60+25 = 75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -734,11 +734,11 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1">
-        <f>75/0.75</f>
-        <v>100</v>
+        <f>85/0.75</f>
+        <v>113.33333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -746,7 +746,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1">
         <f>150/0.75</f>
@@ -1093,7 +1093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
@@ -1108,7 +1108,7 @@
         <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1275,7 +1275,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20">
         <f>SUM(C7,C13,C19)</f>
@@ -1284,15 +1284,15 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>100</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>300</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25">
         <v>500</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26">
         <v>1000</v>

--- a/UnitStatus.xlsx
+++ b/UnitStatus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -660,11 +660,11 @@
         <v>31</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -903,13 +903,13 @@
         <v>60</v>
       </c>
       <c r="E21" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F21" s="1">
         <v>50</v>
       </c>
       <c r="G21" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -920,7 +920,7 @@
         <v>120</v>
       </c>
       <c r="E22" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F22" s="1">
         <v>100</v>
@@ -937,13 +937,13 @@
         <v>60</v>
       </c>
       <c r="E23" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F23" s="1">
         <v>50</v>
       </c>
       <c r="G23" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -954,7 +954,7 @@
         <v>120</v>
       </c>
       <c r="E24" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F24" s="1">
         <v>100</v>
@@ -1005,7 +1005,7 @@
         <v>120</v>
       </c>
       <c r="E27" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F27" s="1">
         <v>100</v>
@@ -1093,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C2">
         <f>5*Status!G21</f>
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="C4">
         <f>2*Status!G25 + 5*Status!G21</f>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="C5">
         <f>8*Status!G21 + 8*Status!G23</f>
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1162,7 +1162,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7">
         <f>SUM(C2:C6)</f>
-        <v>296.66666666666669</v>
+        <v>426.66666666666669</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C9">
         <f>12*Status!G23 + 6*Status!G22</f>
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="C11">
         <f>4*Status!G25 + 12*Status!G23</f>
-        <v>160</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1216,7 +1216,7 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13">
         <f t="shared" ref="C13:C19" si="0">SUM(C8:C12)</f>
-        <v>613.33333333333337</v>
+        <v>733.33333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C20">
         <f>SUM(C7,C13,C19)</f>
-        <v>1990</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">

--- a/UnitStatus.xlsx
+++ b/UnitStatus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -769,7 +769,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
         <v>38</v>
@@ -860,7 +860,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1">
         <v>25</v>
@@ -880,7 +880,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="1">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="C20" s="1">
         <v>50</v>
@@ -900,7 +900,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1">
         <v>2.5000000000000001E-2</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E22" s="1">
         <v>2.5000000000000001E-2</v>
@@ -934,7 +934,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1">
         <v>2.5000000000000001E-2</v>
@@ -951,7 +951,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E24" s="1">
         <v>2.5000000000000001E-2</v>
@@ -968,7 +968,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="1">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="E25" s="1">
         <v>0.05</v>
@@ -977,7 +977,7 @@
         <v>200</v>
       </c>
       <c r="G25" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="1">
-        <v>960</v>
+        <v>800</v>
       </c>
       <c r="E26" s="1">
         <v>0.05</v>
@@ -994,7 +994,7 @@
         <v>500</v>
       </c>
       <c r="G26" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1002,7 +1002,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E27" s="1">
         <v>2.5000000000000001E-2</v>
@@ -1093,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="C4">
         <f>2*Status!G25 + 5*Status!G21</f>
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1146,8 +1146,8 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <f>8*Status!G21 + 8*Status!G23</f>
-        <v>160</v>
+        <f>6*Status!G21 + 6*Status!G23</f>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1162,7 +1162,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7">
         <f>SUM(C2:C6)</f>
-        <v>426.66666666666669</v>
+        <v>416.66666666666669</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="C8">
         <f>2*Status!G25 + 8*Status!G22</f>
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="C11">
         <f>4*Status!G25 + 12*Status!G23</f>
-        <v>220</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1216,7 +1216,7 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13">
         <f t="shared" ref="C13:C19" si="0">SUM(C8:C12)</f>
-        <v>733.33333333333337</v>
+        <v>823.33333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="C16">
         <f>3*Status!G26 + 12*Status!G24</f>
-        <v>270</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1270,7 +1270,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>1080</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C20">
         <f>SUM(C7,C13,C19)</f>
-        <v>2240</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">

--- a/UnitStatus.xlsx
+++ b/UnitStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1019,7 +1019,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
